--- a/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>30,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>29,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>35,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>31,5</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,37; 41,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,57; 38,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,42; 48,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,84; 46,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,84; 41,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,64; 38,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>32,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>47,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33,15</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,89</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,91; 36,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,8; 52,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,83; 39,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,66; 52,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,38; 36,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,37; 50,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>36,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>32,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>34,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,87</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,25</t>
+          <t>32,84; 41,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,22; 48,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 26,22</t>
+          <t>29,92; 36,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,47; 51,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,11</t>
+          <t>32,59; 37,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,6; 48,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,51</t>
+          <t>38,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,88</t>
+          <t>43,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,6</t>
+          <t>35,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,61</t>
+          <t>49,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,5</t>
+          <t>37,39</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,73</t>
+          <t>46,65</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 37,17</t>
+          <t>34,41; 42,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,59; 42,69</t>
+          <t>38,09; 49,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,45; 47,38</t>
+          <t>31,97; 42,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,18; 44,52</t>
+          <t>43,62; 56,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,22; 38,47</t>
+          <t>34,23; 40,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 41,45</t>
+          <t>42,51; 50,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,69</t>
+          <t>36,61</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,51</t>
+          <t>31,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,08</t>
+          <t>31,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,2</t>
+          <t>36,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,89</t>
+          <t>34,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,83</t>
+          <t>34,11</t>
         </is>
       </c>
     </row>
@@ -959,39 +959,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,88; 51,75</t>
+          <t>32,57; 42,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,2; 36,03</t>
+          <t>26,0; 39,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,78; 52,79</t>
+          <t>27,85; 37,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,01; 40,24</t>
+          <t>31,07; 44,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>43,29; 50,83</t>
+          <t>30,97; 37,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,22; 36,74</t>
+          <t>30,29; 39,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,1</t>
+          <t>26,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,91</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,69</t>
+          <t>19,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,4</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>43,87</t>
+          <t>23,59</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>35,8</t>
+          <t>3,68</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,0; 47,97</t>
+          <t>17,87; 35,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,65; 41,39</t>
+          <t>1,55; 5,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,39; 50,85</t>
+          <t>15,09; 28,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,62</t>
+          <t>2,28; 7,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,89; 47,72</t>
+          <t>18,05; 30,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,75; 38,47</t>
+          <t>2,36; 5,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,71</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,19</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,35</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>46,65</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,37</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -1119,39 +1119,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,51; 49,54</t>
+          <t>10,0; 12,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,42; 39,19</t>
+          <t>1,3; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,34; 56,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,15; 40,21</t>
+          <t>0,37; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,78; 51,11</t>
+          <t>10,0; 12,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,25; 38,1</t>
+          <t>0,88; 4,35</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>31,48</t>
+          <t>36,41</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>36,52</t>
+          <t>32,86</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,31</t>
+          <t>33,68</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,48</t>
+          <t>32,74</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,11</t>
+          <t>35,26</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,37</t>
+          <t>32,8</t>
         </is>
       </c>
     </row>
@@ -1199,293 +1199,50 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,48; 39,27</t>
+          <t>34,04; 38,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33,25; 41,63</t>
+          <t>30,64; 35,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,78; 43,93</t>
+          <t>31,8; 36,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>28,57; 35,52</t>
+          <t>30,52; 35,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,65; 39,14</t>
+          <t>33,82; 37,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,9; 37,6</t>
+          <t>31,12; 34,59</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>29,28</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>21,89</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>25,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 5,62</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>20,7; 42,4</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 7,35</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>16,22; 28,98</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 5,55</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>20,53; 32,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 9,71</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 12,0</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 3,84</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 4,71</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 12,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>32,73</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>35,79</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>32,68</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>33,75</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>32,7</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>34,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>30,55; 34,97</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>34,1; 37,47</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>30,52; 35,12</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>32,14; 36,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>31,06; 34,31</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>33,67; 36,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo medio para desplazarse al trabajo en minutos</t>
+          <t>Tiempo medio para desplazarse al trabajo en minutos (tasa de respuesta: 91,11%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,37; 41,24</t>
+          <t>20,31; 41,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,57; 38,26</t>
+          <t>22,8; 37,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,42; 48,33</t>
+          <t>27,64; 49,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 46,01</t>
+          <t>26,65; 45,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 41,66</t>
+          <t>26,36; 41,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,64; 38,1</t>
+          <t>26,6; 38,01</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,91; 36,79</t>
+          <t>27,7; 36,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,8; 52,09</t>
+          <t>42,27; 52,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,83; 39,56</t>
+          <t>30,39; 40,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,66; 52,88</t>
+          <t>42,2; 53,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 36,96</t>
+          <t>30,5; 36,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,37; 50,67</t>
+          <t>43,51; 50,64</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,84; 41,05</t>
+          <t>32,82; 41,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,22; 48,59</t>
+          <t>38,23; 48,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,92; 36,71</t>
+          <t>29,8; 36,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 51,11</t>
+          <t>39,19; 50,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,79</t>
+          <t>32,58; 37,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,6; 48,12</t>
+          <t>40,27; 47,49</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,41; 42,0</t>
+          <t>34,58; 41,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,09; 49,41</t>
+          <t>38,25; 49,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 42,59</t>
+          <t>31,93; 43,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,62; 56,58</t>
+          <t>43,45; 56,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,23; 40,04</t>
+          <t>34,33; 40,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,51; 50,85</t>
+          <t>42,41; 51,26</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,57; 42,46</t>
+          <t>32,52; 42,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,0; 39,64</t>
+          <t>25,39; 38,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,85; 37,68</t>
+          <t>27,99; 37,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,07; 44,18</t>
+          <t>30,96; 44,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,9</t>
+          <t>31,55; 38,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,29; 39,63</t>
+          <t>30,11; 39,13</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,87; 35,69</t>
+          <t>18,48; 36,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,67</t>
+          <t>1,55; 5,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 28,66</t>
+          <t>15,3; 27,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,47</t>
+          <t>2,43; 7,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,05; 30,5</t>
+          <t>17,78; 30,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,66</t>
+          <t>2,35; 5,6</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 9,71</t>
+          <t>1,3; 9,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,82</t>
+          <t>0,4; 4,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,35</t>
+          <t>0,99; 4,77</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,04; 38,64</t>
+          <t>34,25; 38,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,64; 35,21</t>
+          <t>30,69; 35,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,8; 36,37</t>
+          <t>31,86; 36,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,52; 35,16</t>
+          <t>30,39; 35,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,82; 37,31</t>
+          <t>33,66; 37,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,12; 34,59</t>
+          <t>31,25; 34,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DESPLA_TIEMPO-Edad-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,97</t>
+          <t>32,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,82</t>
+          <t>37,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,62</t>
+          <t>35,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,31; 41,21</t>
+          <t>24,15; 42,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 49,03</t>
+          <t>29,59; 48,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,36; 41,93</t>
+          <t>28,98; 42,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,11</t>
+          <t>33,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>35,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,15</t>
+          <t>34,52</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,7; 36,69</t>
+          <t>29,23; 38,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,39; 40,16</t>
+          <t>31,55; 44,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 36,36</t>
+          <t>31,41; 38,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,61</t>
+          <t>36,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,69</t>
+          <t>32,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,84</t>
+          <t>34,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,82; 41,09</t>
+          <t>33,32; 40,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,8; 36,64</t>
+          <t>29,77; 36,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,58; 37,71</t>
+          <t>32,78; 37,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,36</t>
+          <t>37,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,3</t>
+          <t>33,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,39</t>
+          <t>35,67</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 41,92</t>
+          <t>33,52; 42,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,93; 43,08</t>
+          <t>31,17; 36,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 40,94</t>
+          <t>33,28; 38,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,61</t>
+          <t>37,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31,54</t>
+          <t>31,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,38</t>
+          <t>35,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,52; 42,08</t>
+          <t>33,03; 43,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,99; 37,69</t>
+          <t>28,24; 37,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,55; 38,17</t>
+          <t>31,99; 38,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,52</t>
+          <t>28,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>19,96</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,59</t>
+          <t>25,06</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 36,42</t>
+          <t>20,39; 39,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 27,81</t>
+          <t>15,32; 28,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 30,48</t>
+          <t>19,01; 32,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,41</t>
+          <t>36,1</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,68</t>
+          <t>33,69</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,26</t>
+          <t>34,99</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>34,25; 38,8</t>
+          <t>34,08; 38,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,86; 36,39</t>
+          <t>31,95; 35,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,66; 37,21</t>
+          <t>33,6; 36,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
